--- a/to_export.xlsx
+++ b/to_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>ATAS-LAKBAY</t>
   </si>
@@ -36,13 +36,13 @@
     <t>Petsa:</t>
   </si>
   <si>
-    <t>May 11, 2020</t>
+    <t>May 19, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">A.L. Blg. </t>
   </si>
   <si>
-    <t>TO 2020-006</t>
+    <t>TO 2020-09</t>
   </si>
   <si>
     <t>Pangalan:</t>
@@ -54,19 +54,16 @@
     <t>Taunang Kita:</t>
   </si>
   <si>
-    <t>Christian Paul V. Ferrer</t>
-  </si>
-  <si>
-    <t>Planning Officer V</t>
+    <t>Christian Paul V Ferrer</t>
+  </si>
+  <si>
+    <t>Information Technology Officer I</t>
   </si>
   <si>
     <t xml:space="preserve">Pinagmulan: </t>
   </si>
   <si>
     <t>Patutunguhan:</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>Makikipagkita kay:</t>
@@ -89,13 +86,13 @@
     </r>
   </si>
   <si>
-    <t>May 11, 2020  8 AM</t>
+    <t>May 20, 2020  9 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Oras at Petsang Pagbabalik: </t>
   </si>
   <si>
-    <t>May 11, 2020  5 PM</t>
+    <t>May 19, 2020  6 PM</t>
   </si>
   <si>
     <t>Layunin ng Paglalakbay:</t>
@@ -107,9 +104,6 @@
     <t>Paunang-bayad Nilikida:</t>
   </si>
   <si>
-    <t>suv</t>
-  </si>
-  <si>
     <t>________________________________</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>Nagbigay-ulat sa Huling Paglalakbay:</t>
+  </si>
+  <si>
+    <t>May 18, 2020</t>
   </si>
   <si>
     <t>Lagda ng Naglakbay</t>
@@ -193,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -311,6 +308,24 @@
       <color rgb="FF000000"/>
       <name val="Cambria (Headings)"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -414,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -505,9 +520,6 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -553,24 +565,93 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -601,43 +682,10 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -978,7 +1026,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,7 +1036,7 @@
     <col min="3" max="3" width="12.140625" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.7109375" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.7109375" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.140625" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.85546875" customWidth="true" style="0"/>
     <col min="8" max="8" width="6" customWidth="true" style="0"/>
     <col min="9" max="9" width="10.7109375" customWidth="true" style="0"/>
@@ -997,17 +1045,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="15" t="s">
@@ -1023,10 +1071,10 @@
     <row r="8" spans="1:12" customHeight="1" ht="20.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16"/>
@@ -1039,16 +1087,16 @@
     <row r="9" spans="1:12" customHeight="1" ht="20.25">
       <c r="A9" s="9"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="20"/>
       <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="21"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1056,8 +1104,8 @@
     <row r="10" spans="1:12">
       <c r="A10" s="9"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
       <c r="G10" s="20"/>
@@ -1069,8 +1117,8 @@
     <row r="11" spans="1:12" customHeight="1" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="20"/>
       <c r="F11" s="29" t="s">
         <v>6</v>
@@ -1078,7 +1126,7 @@
       <c r="G11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="21"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1086,8 +1134,8 @@
     <row r="12" spans="1:12" customHeight="1" ht="29.25">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
@@ -1103,10 +1151,10 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="26" t="s">
         <v>10</v>
       </c>
@@ -1117,17 +1165,19 @@
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="26.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="63" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="68">
+        <v>9991</v>
+      </c>
+      <c r="H14" s="69"/>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1152,10 +1202,10 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="27"/>
       <c r="H16" s="16"/>
       <c r="I16" s="18"/>
@@ -1164,18 +1214,18 @@
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="22.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="68">
+        <v>2</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="68">
+        <v>2</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -1189,18 +1239,18 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="25.5">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="27"/>
       <c r="H19" s="16"/>
       <c r="I19" s="18"/>
@@ -1209,16 +1259,16 @@
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="23.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="68">
+        <v>2</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -1238,62 +1288,62 @@
     <row r="22" spans="1:12" customHeight="1" ht="30">
       <c r="A22" s="9"/>
       <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="31.5">
       <c r="A23" s="9"/>
       <c r="B23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:12" customHeight="1" ht="27.75">
       <c r="A24" s="9"/>
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="27"/>
       <c r="H24" s="16"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="1:12" customHeight="1" ht="26.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
@@ -1307,18 +1357,18 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="24.75">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="74"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="16"/>
       <c r="E27" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -1329,15 +1379,15 @@
     </row>
     <row r="28" spans="1:12" customHeight="1" ht="27">
       <c r="A28" s="9"/>
-      <c r="B28" s="46" t="s">
-        <v>24</v>
+      <c r="B28" s="51">
+        <v>2</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="21"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1349,7 +1399,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -1363,10 +1413,10 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="67"/>
+      <c r="F30" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="74"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="9"/>
@@ -1380,20 +1430,20 @@
       <c r="E31" s="11"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="9"/>
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="18"/>
       <c r="E32" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -1404,13 +1454,15 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="21"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1422,7 +1474,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1436,10 +1488,10 @@
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="52"/>
+      <c r="F35" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="60"/>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="9"/>
@@ -1453,20 +1505,20 @@
       <c r="E36" s="11"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="9"/>
       <c r="B37" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1477,13 +1529,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="9"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="21"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -1496,14 +1548,14 @@
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="21"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="9"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
@@ -1516,35 +1568,35 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="9"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="61"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="9"/>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="62"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
@@ -1565,11 +1617,11 @@
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="D44" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -1579,7 +1631,7 @@
     <row r="45" spans="1:12">
       <c r="A45" s="9"/>
       <c r="B45" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -1594,7 +1646,7 @@
     <row r="46" spans="1:12" customHeight="1" ht="15.75">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -1609,14 +1661,14 @@
     <row r="47" spans="1:12">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="16"/>
@@ -1631,7 +1683,7 @@
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
@@ -1667,10 +1719,10 @@
     <row r="51" spans="1:12">
       <c r="A51" s="9"/>
       <c r="B51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -1681,139 +1733,139 @@
     <row r="52" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+        <v>42</v>
+      </c>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="9"/>
       <c r="B53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="9"/>
       <c r="B54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="41"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="41"/>
+        <v>42</v>
+      </c>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="9"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="9"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="9"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="9"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="9"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="9"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:12">
       <c r="B62" s="2"/>
@@ -1830,14 +1882,14 @@
     <row r="63" spans="1:12">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
     </row>
     <row r="64" spans="1:12">
       <c r="B64" s="2"/>
@@ -1894,10 +1946,10 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
     </row>
     <row r="69" spans="1:12">
       <c r="B69" s="3"/>
@@ -2001,6 +2053,22 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C8:D12"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="B42:D42"/>
@@ -2014,29 +2082,13 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="E42:I42"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C8:D12"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:I41"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="71" fitToHeight="0" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="70" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/to_export.xlsx
+++ b/to_export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>ATAS-LAKBAY</t>
   </si>
@@ -36,13 +36,13 @@
     <t>Petsa:</t>
   </si>
   <si>
-    <t>May 19, 2020</t>
+    <t>May 08, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">A.L. Blg. </t>
   </si>
   <si>
-    <t>TO 2020-09</t>
+    <t>2020-004</t>
   </si>
   <si>
     <t>Pangalan:</t>
@@ -54,16 +54,19 @@
     <t>Taunang Kita:</t>
   </si>
   <si>
-    <t>Christian Paul V Ferrer</t>
-  </si>
-  <si>
-    <t>Information Technology Officer I</t>
+    <t>Shiela Mei  Olivar</t>
+  </si>
+  <si>
+    <t>Planning Officer V</t>
   </si>
   <si>
     <t xml:space="preserve">Pinagmulan: </t>
   </si>
   <si>
     <t>Patutunguhan:</t>
+  </si>
+  <si>
+    <t>it test</t>
   </si>
   <si>
     <t>Makikipagkita kay:</t>
@@ -86,13 +89,13 @@
     </r>
   </si>
   <si>
-    <t>May 20, 2020  9 AM</t>
+    <t>May 19, 2020  3 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Oras at Petsang Pagbabalik: </t>
   </si>
   <si>
-    <t>May 19, 2020  6 PM</t>
+    <t>May 19, 2020  5 PM</t>
   </si>
   <si>
     <t>Layunin ng Paglalakbay:</t>
@@ -116,7 +119,7 @@
     <t>Nagbigay-ulat sa Huling Paglalakbay:</t>
   </si>
   <si>
-    <t>May 18, 2020</t>
+    <t>January 01, 1970</t>
   </si>
   <si>
     <t>Lagda ng Naglakbay</t>
@@ -1174,9 +1177,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="72"/>
-      <c r="G14" s="68">
-        <v>9991</v>
-      </c>
+      <c r="G14" s="68"/>
       <c r="H14" s="69"/>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
@@ -1214,13 +1215,13 @@
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="22.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="68">
-        <v>2</v>
+      <c r="B17" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
-      <c r="E17" s="68">
-        <v>2</v>
+      <c r="E17" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
@@ -1245,7 +1246,7 @@
     <row r="19" spans="1:12" customHeight="1" ht="25.5">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1259,8 +1260,8 @@
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="23.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="68">
-        <v>2</v>
+      <c r="B20" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
@@ -1288,11 +1289,11 @@
     <row r="22" spans="1:12" customHeight="1" ht="30">
       <c r="A22" s="9"/>
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -1305,11 +1306,11 @@
     <row r="23" spans="1:12" customHeight="1" ht="31.5">
       <c r="A23" s="9"/>
       <c r="B23" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -1322,7 +1323,7 @@
     <row r="24" spans="1:12" customHeight="1" ht="27.75">
       <c r="A24" s="9"/>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1363,12 +1364,12 @@
     <row r="27" spans="1:12" customHeight="1" ht="24.75">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="16"/>
       <c r="E27" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -1379,8 +1380,8 @@
     </row>
     <row r="28" spans="1:12" customHeight="1" ht="27">
       <c r="A28" s="9"/>
-      <c r="B28" s="51">
-        <v>2</v>
+      <c r="B28" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -1399,7 +1400,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -1414,7 +1415,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="19"/>
       <c r="F30" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="74"/>
       <c r="H30" s="20"/>
@@ -1438,12 +1439,12 @@
     <row r="32" spans="1:12">
       <c r="A32" s="9"/>
       <c r="B32" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="18"/>
       <c r="E32" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -1455,7 +1456,7 @@
     <row r="33" spans="1:12">
       <c r="A33" s="9"/>
       <c r="B33" s="85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="56"/>
@@ -1474,7 +1475,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1489,7 +1490,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="19"/>
       <c r="F35" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35" s="60"/>
       <c r="H35" s="20"/>
@@ -1513,12 +1514,12 @@
     <row r="37" spans="1:12">
       <c r="A37" s="9"/>
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1569,12 +1570,12 @@
     <row r="41" spans="1:12">
       <c r="A41" s="9"/>
       <c r="B41" s="81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="82"/>
       <c r="D41" s="83"/>
       <c r="E41" s="81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" s="82"/>
       <c r="G41" s="82"/>
@@ -1586,12 +1587,12 @@
     <row r="42" spans="1:12">
       <c r="A42" s="9"/>
       <c r="B42" s="59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="61"/>
       <c r="E42" s="59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="60"/>
       <c r="G42" s="60"/>
@@ -1618,7 +1619,7 @@
       <c r="B44" s="10"/>
       <c r="C44" s="16"/>
       <c r="D44" s="58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
@@ -1631,7 +1632,7 @@
     <row r="45" spans="1:12">
       <c r="A45" s="9"/>
       <c r="B45" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -1646,7 +1647,7 @@
     <row r="46" spans="1:12" customHeight="1" ht="15.75">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -1661,14 +1662,14 @@
     <row r="47" spans="1:12">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="16"/>
@@ -1719,10 +1720,10 @@
     <row r="51" spans="1:12">
       <c r="A51" s="9"/>
       <c r="B51" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -1733,10 +1734,10 @@
     <row r="52" spans="1:12">
       <c r="A52" s="9"/>
       <c r="B52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -1747,10 +1748,10 @@
     <row r="53" spans="1:12">
       <c r="A53" s="9"/>
       <c r="B53" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -1761,13 +1762,13 @@
     <row r="54" spans="1:12">
       <c r="A54" s="9"/>
       <c r="B54" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="41"/>
@@ -1778,10 +1779,10 @@
     <row r="55" spans="1:12">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="41"/>

--- a/to_export.xlsx
+++ b/to_export.xlsx
@@ -36,13 +36,13 @@
     <t>Petsa:</t>
   </si>
   <si>
-    <t>May 08, 2020</t>
+    <t>May 19, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">A.L. Blg. </t>
   </si>
   <si>
-    <t>2020-004</t>
+    <t>2020-011</t>
   </si>
   <si>
     <t>Pangalan:</t>
@@ -54,7 +54,7 @@
     <t>Taunang Kita:</t>
   </si>
   <si>
-    <t>Shiela Mei  Olivar</t>
+    <t>Christian Paul V Ferrer</t>
   </si>
   <si>
     <t>Planning Officer V</t>
@@ -66,7 +66,7 @@
     <t>Patutunguhan:</t>
   </si>
   <si>
-    <t>it test</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Makikipagkita kay:</t>
@@ -89,13 +89,13 @@
     </r>
   </si>
   <si>
-    <t>May 19, 2020  3 PM</t>
+    <t>May 13, 2020  8 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Oras at Petsang Pagbabalik: </t>
   </si>
   <si>
-    <t>May 19, 2020  5 PM</t>
+    <t>May 15, 2020  9 PM</t>
   </si>
   <si>
     <t>Layunin ng Paglalakbay:</t>
@@ -119,7 +119,7 @@
     <t>Nagbigay-ulat sa Huling Paglalakbay:</t>
   </si>
   <si>
-    <t>January 01, 1970</t>
+    <t>May 15, 2020</t>
   </si>
   <si>
     <t>Lagda ng Naglakbay</t>
@@ -1177,7 +1177,9 @@
         <v>12</v>
       </c>
       <c r="F14" s="72"/>
-      <c r="G14" s="68"/>
+      <c r="G14" s="68">
+        <v>1000</v>
+      </c>
       <c r="H14" s="69"/>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
